--- a/data/pca/factorExposure/factorExposure_2013-02-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-21.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001684186260631435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002018291671172624</v>
+      </c>
+      <c r="C2">
+        <v>-0.03153582577960126</v>
+      </c>
+      <c r="D2">
+        <v>-0.003069835848343023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001646829555121043</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006267686096494703</v>
+      </c>
+      <c r="C4">
+        <v>-0.08463154468977212</v>
+      </c>
+      <c r="D4">
+        <v>-0.07902953103950375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001457391819325202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01389564483148669</v>
+      </c>
+      <c r="C6">
+        <v>-0.1133054068922215</v>
+      </c>
+      <c r="D6">
+        <v>-0.03240577038061176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001284847400634416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004926303669940364</v>
+      </c>
+      <c r="C7">
+        <v>-0.05709834303969018</v>
+      </c>
+      <c r="D7">
+        <v>-0.03390114254061464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0002127987767247009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.00573836141783431</v>
+      </c>
+      <c r="C8">
+        <v>-0.03893138254726688</v>
+      </c>
+      <c r="D8">
+        <v>-0.04281704292000731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003876088303421768</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004296160027851062</v>
+      </c>
+      <c r="C9">
+        <v>-0.07041874637696613</v>
+      </c>
+      <c r="D9">
+        <v>-0.06996708548189359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004913255565498734</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005430021828504395</v>
+      </c>
+      <c r="C10">
+        <v>-0.05837968854909128</v>
+      </c>
+      <c r="D10">
+        <v>0.2007763972872975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002604289734182931</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005499840340383742</v>
+      </c>
+      <c r="C11">
+        <v>-0.08041801260727971</v>
+      </c>
+      <c r="D11">
+        <v>-0.05946297439646957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0005907162326252839</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.00413381640415284</v>
+      </c>
+      <c r="C12">
+        <v>-0.06449580426968077</v>
+      </c>
+      <c r="D12">
+        <v>-0.04519957271292108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003341801684311074</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008716866768121886</v>
+      </c>
+      <c r="C13">
+        <v>-0.06680912763850727</v>
+      </c>
+      <c r="D13">
+        <v>-0.06621687492486686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001194166470931313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001601085656105301</v>
+      </c>
+      <c r="C14">
+        <v>-0.0464346593721837</v>
+      </c>
+      <c r="D14">
+        <v>-0.006508493406069306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009338054945204956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006007594371332711</v>
+      </c>
+      <c r="C15">
+        <v>-0.04276612987618403</v>
+      </c>
+      <c r="D15">
+        <v>-0.0300235781437031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001028920511594651</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005076090492649523</v>
+      </c>
+      <c r="C16">
+        <v>-0.06614420044920355</v>
+      </c>
+      <c r="D16">
+        <v>-0.04605772261957491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>7.05289749084468e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008824439726135095</v>
+      </c>
+      <c r="C20">
+        <v>-0.06618222762593583</v>
+      </c>
+      <c r="D20">
+        <v>-0.04651485512696729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005123365161736527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009819075130003367</v>
+      </c>
+      <c r="C21">
+        <v>-0.02301296612637974</v>
+      </c>
+      <c r="D21">
+        <v>-0.03369543733180012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01769363181167428</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006695584983292735</v>
+      </c>
+      <c r="C22">
+        <v>-0.09534615380164878</v>
+      </c>
+      <c r="D22">
+        <v>-0.1020744781731909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01800416843106614</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006514194173312052</v>
+      </c>
+      <c r="C23">
+        <v>-0.09615026515807368</v>
+      </c>
+      <c r="D23">
+        <v>-0.102311373157581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001857579357980868</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005159402503252254</v>
+      </c>
+      <c r="C24">
+        <v>-0.07544243265425681</v>
+      </c>
+      <c r="D24">
+        <v>-0.05841511299337371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003735880587505938</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002857085282907789</v>
+      </c>
+      <c r="C25">
+        <v>-0.07755538724117872</v>
+      </c>
+      <c r="D25">
+        <v>-0.06514620239108314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005580020976838069</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003569001848347763</v>
+      </c>
+      <c r="C26">
+        <v>-0.04156930614603592</v>
+      </c>
+      <c r="D26">
+        <v>-0.02347403690923792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.003497254201827921</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009086690216450524</v>
+      </c>
+      <c r="C28">
+        <v>-0.1069745490189044</v>
+      </c>
+      <c r="D28">
+        <v>0.3190849545172209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001026835971999604</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003130248336143129</v>
+      </c>
+      <c r="C29">
+        <v>-0.04918256769711609</v>
+      </c>
+      <c r="D29">
+        <v>-0.002467712505742518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.00295157518190698</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009119672122124551</v>
+      </c>
+      <c r="C30">
+        <v>-0.1430370981623007</v>
+      </c>
+      <c r="D30">
+        <v>-0.1008685945255813</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.000893562450556163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006196655769938715</v>
+      </c>
+      <c r="C31">
+        <v>-0.04557998664594112</v>
+      </c>
+      <c r="D31">
+        <v>-0.03192588638726809</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>5.594852856985888e-06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003979599748094271</v>
+      </c>
+      <c r="C32">
+        <v>-0.04232005689658513</v>
+      </c>
+      <c r="D32">
+        <v>-0.01877787745491785</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002888660116883855</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008206175348494079</v>
+      </c>
+      <c r="C33">
+        <v>-0.0869248625517286</v>
+      </c>
+      <c r="D33">
+        <v>-0.06843642747741956</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004278443216159287</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003952747296954539</v>
+      </c>
+      <c r="C34">
+        <v>-0.05791173108275086</v>
+      </c>
+      <c r="D34">
+        <v>-0.05131937499227091</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.0022788808810753</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004931460908077412</v>
+      </c>
+      <c r="C35">
+        <v>-0.03985180848872167</v>
+      </c>
+      <c r="D35">
+        <v>-0.01303067805356645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004132225185221425</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001302524714333124</v>
+      </c>
+      <c r="C36">
+        <v>-0.02432179411449188</v>
+      </c>
+      <c r="D36">
+        <v>-0.02198183793404952</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002625245097346115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009549548049360751</v>
+      </c>
+      <c r="C38">
+        <v>-0.03482750122608592</v>
+      </c>
+      <c r="D38">
+        <v>-0.01802615039163045</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01210313123120543</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0007051888924275135</v>
+      </c>
+      <c r="C39">
+        <v>-0.117112618277139</v>
+      </c>
+      <c r="D39">
+        <v>-0.07053745471097009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008809256717926836</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002275166723848829</v>
+      </c>
+      <c r="C40">
+        <v>-0.08853281779041872</v>
+      </c>
+      <c r="D40">
+        <v>-0.01607966561299151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003443023343284827</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007277747342204492</v>
+      </c>
+      <c r="C41">
+        <v>-0.03822898816561853</v>
+      </c>
+      <c r="D41">
+        <v>-0.034114602081945</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003065740423308379</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003711403086682995</v>
+      </c>
+      <c r="C43">
+        <v>-0.05226765300281112</v>
+      </c>
+      <c r="D43">
+        <v>-0.02268950570179885</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002745464140605348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003154067901746792</v>
+      </c>
+      <c r="C44">
+        <v>-0.1106255514334683</v>
+      </c>
+      <c r="D44">
+        <v>-0.06937880461257297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001520711340633466</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002290718249029009</v>
+      </c>
+      <c r="C46">
+        <v>-0.0336709686060882</v>
+      </c>
+      <c r="D46">
+        <v>-0.03010433982350311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.000480961310287868</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002704811411062708</v>
+      </c>
+      <c r="C47">
+        <v>-0.03733439822433347</v>
+      </c>
+      <c r="D47">
+        <v>-0.02546125969875152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003661461811110872</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.00648982983848725</v>
+      </c>
+      <c r="C48">
+        <v>-0.02981075122974414</v>
+      </c>
+      <c r="D48">
+        <v>-0.03070354042204876</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.012176597757123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01505349828971768</v>
+      </c>
+      <c r="C49">
+        <v>-0.1822708611546632</v>
+      </c>
+      <c r="D49">
+        <v>-0.01121573120344955</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0005007693996887395</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003602978305279267</v>
+      </c>
+      <c r="C50">
+        <v>-0.04405167323203527</v>
+      </c>
+      <c r="D50">
+        <v>-0.03504805112086445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0005720861829933401</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00446742637608877</v>
+      </c>
+      <c r="C51">
+        <v>-0.02666292820009874</v>
+      </c>
+      <c r="D51">
+        <v>-0.01897880118699862</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001168844525715798</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02069019391167428</v>
+      </c>
+      <c r="C53">
+        <v>-0.1690945431272704</v>
+      </c>
+      <c r="D53">
+        <v>-0.03785829064108272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001540714248804055</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008690997865085537</v>
+      </c>
+      <c r="C54">
+        <v>-0.05535737865440388</v>
+      </c>
+      <c r="D54">
+        <v>-0.04145267539026873</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003834511313944916</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009530998324828144</v>
+      </c>
+      <c r="C55">
+        <v>-0.1095052921703931</v>
+      </c>
+      <c r="D55">
+        <v>-0.04529680503503425</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003496300963468466</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.0201280765116148</v>
+      </c>
+      <c r="C56">
+        <v>-0.1751128188476281</v>
+      </c>
+      <c r="D56">
+        <v>-0.03702595888356223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007446535607134244</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01964665273330523</v>
+      </c>
+      <c r="C58">
+        <v>-0.1119880615595911</v>
+      </c>
+      <c r="D58">
+        <v>-0.04731737146112544</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.005717420712098323</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009509522253997716</v>
+      </c>
+      <c r="C59">
+        <v>-0.1620999332241621</v>
+      </c>
+      <c r="D59">
+        <v>0.3084371011533845</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003030310862674516</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02341952397460947</v>
+      </c>
+      <c r="C60">
+        <v>-0.2208267161176248</v>
+      </c>
+      <c r="D60">
+        <v>-0.02757295919597319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01381752442109671</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001796578699361141</v>
+      </c>
+      <c r="C61">
+        <v>-0.09568385815616708</v>
+      </c>
+      <c r="D61">
+        <v>-0.05720192402767098</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1686037706081142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1446005676631712</v>
+      </c>
+      <c r="C62">
+        <v>-0.09050663994632435</v>
+      </c>
+      <c r="D62">
+        <v>-0.0524377261429996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.00113731529462989</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006249864460143714</v>
+      </c>
+      <c r="C63">
+        <v>-0.05616865933950892</v>
+      </c>
+      <c r="D63">
+        <v>-0.02373104437845115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.004357972376918745</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01509301780007723</v>
+      </c>
+      <c r="C64">
+        <v>-0.1046940153732791</v>
+      </c>
+      <c r="D64">
+        <v>-0.06105844057469753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002712632780335379</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.0176861112861102</v>
+      </c>
+      <c r="C65">
+        <v>-0.1215603317910136</v>
+      </c>
+      <c r="D65">
+        <v>-0.01788930903810422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.006748292359008631</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01289978396249902</v>
+      </c>
+      <c r="C66">
+        <v>-0.1600846020461502</v>
+      </c>
+      <c r="D66">
+        <v>-0.1118668193359593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003944600559157959</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.0156876956130657</v>
+      </c>
+      <c r="C67">
+        <v>-0.06580590333393629</v>
+      </c>
+      <c r="D67">
+        <v>-0.02576150594130311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005604889621553962</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0006533606901345663</v>
+      </c>
+      <c r="C68">
+        <v>-0.08710429657271657</v>
+      </c>
+      <c r="D68">
+        <v>0.2538086092326338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002548058075590934</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006083858989217489</v>
+      </c>
+      <c r="C69">
+        <v>-0.05031593605508394</v>
+      </c>
+      <c r="D69">
+        <v>-0.03968182907056329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0003105404392116205</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001824528511660751</v>
+      </c>
+      <c r="C70">
+        <v>-0.002659710356743814</v>
+      </c>
+      <c r="D70">
+        <v>-0.001400325881790825</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0004789256389061494</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005922133375478253</v>
+      </c>
+      <c r="C71">
+        <v>-0.09729068606264699</v>
+      </c>
+      <c r="D71">
+        <v>0.3028419914785127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004302409032188626</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01589392175005349</v>
+      </c>
+      <c r="C72">
+        <v>-0.1531273272158603</v>
+      </c>
+      <c r="D72">
+        <v>-0.02155661224717532</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01144337235294597</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02966328324014808</v>
+      </c>
+      <c r="C73">
+        <v>-0.2752786867690043</v>
+      </c>
+      <c r="D73">
+        <v>-0.04693895886740308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004433069759420385</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001804551367292984</v>
+      </c>
+      <c r="C74">
+        <v>-0.1053905824542662</v>
+      </c>
+      <c r="D74">
+        <v>-0.03766114440400326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002174165591077782</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01094516578204338</v>
+      </c>
+      <c r="C75">
+        <v>-0.1281975167276749</v>
+      </c>
+      <c r="D75">
+        <v>-0.02336800499792508</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009769733197240916</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02179182408456343</v>
+      </c>
+      <c r="C76">
+        <v>-0.1499656288482851</v>
+      </c>
+      <c r="D76">
+        <v>-0.06632356930770751</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001364696212316188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02357238379299088</v>
+      </c>
+      <c r="C77">
+        <v>-0.1303076272679289</v>
+      </c>
+      <c r="D77">
+        <v>-0.0554545182236312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001026324858337505</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01446423577684528</v>
+      </c>
+      <c r="C78">
+        <v>-0.09486668524482725</v>
+      </c>
+      <c r="D78">
+        <v>-0.06506493456146796</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02420731404872909</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03764279030421579</v>
+      </c>
+      <c r="C79">
+        <v>-0.1560675321122124</v>
+      </c>
+      <c r="D79">
+        <v>-0.03638601071160442</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004556624335092464</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01062732998806216</v>
+      </c>
+      <c r="C80">
+        <v>-0.04326379556593186</v>
+      </c>
+      <c r="D80">
+        <v>-0.02885775210290113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.00112700081877537</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01517788638825879</v>
+      </c>
+      <c r="C81">
+        <v>-0.1270442974707555</v>
+      </c>
+      <c r="D81">
+        <v>-0.04314165977971641</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006218182828108001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01992998447198956</v>
+      </c>
+      <c r="C82">
+        <v>-0.1430122452925762</v>
+      </c>
+      <c r="D82">
+        <v>-0.04413936954362712</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009121541410130878</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01007471123803185</v>
+      </c>
+      <c r="C83">
+        <v>-0.05730035765920857</v>
+      </c>
+      <c r="D83">
+        <v>-0.0582463933640666</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01366615409930061</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01167749205756077</v>
+      </c>
+      <c r="C84">
+        <v>-0.03677773605638882</v>
+      </c>
+      <c r="D84">
+        <v>0.008167326389822777</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01482023334155803</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02811570185215855</v>
+      </c>
+      <c r="C85">
+        <v>-0.1263207404644111</v>
+      </c>
+      <c r="D85">
+        <v>-0.04825969833929809</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0004516083268630445</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005488090805830252</v>
+      </c>
+      <c r="C86">
+        <v>-0.04955045080300557</v>
+      </c>
+      <c r="D86">
+        <v>-0.02254155759313918</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003860148920435159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01032327030192932</v>
+      </c>
+      <c r="C87">
+        <v>-0.1319985110664546</v>
+      </c>
+      <c r="D87">
+        <v>-0.06751999788435957</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01267497520287503</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002847562534964908</v>
+      </c>
+      <c r="C88">
+        <v>-0.06766007644247173</v>
+      </c>
+      <c r="D88">
+        <v>-0.01357325114194045</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.013723710401891</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001498214366939839</v>
+      </c>
+      <c r="C89">
+        <v>-0.1462083317413789</v>
+      </c>
+      <c r="D89">
+        <v>0.3427301969647456</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001634999002303686</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006689308538230644</v>
+      </c>
+      <c r="C90">
+        <v>-0.1215159294160625</v>
+      </c>
+      <c r="D90">
+        <v>0.3276620857613067</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001533838697207438</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01053046672687486</v>
+      </c>
+      <c r="C91">
+        <v>-0.1031568915521303</v>
+      </c>
+      <c r="D91">
+        <v>-0.02463597722611001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007749226871981207</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0007779969374270189</v>
+      </c>
+      <c r="C92">
+        <v>-0.1365498951846254</v>
+      </c>
+      <c r="D92">
+        <v>0.3318969447415461</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0004225622136363029</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.00477305534868685</v>
+      </c>
+      <c r="C93">
+        <v>-0.1050876485245449</v>
+      </c>
+      <c r="D93">
+        <v>0.3099125781345413</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004510340562525623</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.0225371629577673</v>
+      </c>
+      <c r="C94">
+        <v>-0.1502953869142857</v>
+      </c>
+      <c r="D94">
+        <v>-0.05173786914942678</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004733385238862023</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01643876822881978</v>
+      </c>
+      <c r="C95">
+        <v>-0.1259711830822157</v>
+      </c>
+      <c r="D95">
+        <v>-0.06517542095257278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001196459992616917</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03556163789615058</v>
+      </c>
+      <c r="C97">
+        <v>-0.2096252300564293</v>
+      </c>
+      <c r="D97">
+        <v>0.006608898258900251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003632813926719229</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03653950264942876</v>
+      </c>
+      <c r="C98">
+        <v>-0.246280242333084</v>
+      </c>
+      <c r="D98">
+        <v>-0.04989661232272258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9838541249196288</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9823525611950275</v>
+      </c>
+      <c r="C99">
+        <v>0.1149143667906413</v>
+      </c>
+      <c r="D99">
+        <v>0.02849273555825758</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009315344957259998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003166651516406841</v>
+      </c>
+      <c r="C101">
+        <v>-0.04937465852365655</v>
+      </c>
+      <c r="D101">
+        <v>-0.002534584313833483</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
